--- a/src/test/resources/com/yqboots/project/initializer/core/workbook.xlsx
+++ b/src/test/resources/com/yqboots/project/initializer/core/workbook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="203">
   <si>
     <t>URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -958,10 +958,6 @@
   </si>
   <si>
     <t>Field Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1671,13 +1667,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1687,17 +1683,16 @@
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>199</v>
@@ -1710,10 +1705,9 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
@@ -1726,22 +1720,19 @@
         <v>201</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -1757,17 +1748,14 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1">
-        <v>32</v>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,17 +1765,14 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1">
-        <v>64</v>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1797,17 +1782,14 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
-        <v>32</v>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1817,17 +1799,14 @@
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
-        <v>32</v>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>198</v>
       </c>
@@ -1843,17 +1822,14 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1">
-        <v>32</v>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1863,17 +1839,14 @@
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1">
-        <v>64</v>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1883,17 +1856,14 @@
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1">
-        <v>32</v>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,19 +1873,16 @@
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1">
-        <v>255</v>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/src/test/resources/com/yqboots/project/initializer/core/workbook.xlsx
+++ b/src/test/resources/com/yqboots/project/initializer/core/workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="209">
   <si>
     <t>URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MenuItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Nullable</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
   </si>
   <si>
     <t>menuItemGroup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDict</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -962,6 +954,38 @@
   </si>
   <si>
     <t>Module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuItem1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDict1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuItem1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/MenuItem1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDict1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dict/DataDict1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1480,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1497,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1549,6 +1573,34 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1590,72 +1642,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1669,11 +1721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1692,13 +1744,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
@@ -1711,42 +1763,42 @@
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -1760,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -1774,13 +1826,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -1791,13 +1843,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -1808,19 +1860,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -1831,13 +1883,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -1848,13 +1900,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -1865,13 +1917,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>1</v>
@@ -1895,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1909,7 +1961,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -1920,24 +1972,24 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1946,10 +1998,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1958,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1970,10 +2022,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1981,373 +2033,373 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2414,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2386,79 +2438,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/yqboots/project/initializer/core/workbook.xlsx
+++ b/src/test/resources/com/yqboots/project/initializer/core/workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
   <si>
     <t>URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -541,14 +541,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Submit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Import</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -613,39 +605,419 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典表单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单表单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子菜单组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring.mvc.locale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring.thymeleaf.cache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Locale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thymeleaf Cache, disabled for reloading when deveoping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqboots.project.dict.import-enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqboots.project.dict.import-file-location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classpath:updates/DataDicts.xml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqboots.project.menu.import-enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqboots.project.menu.import-file-location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classpath:updates/MenuItems.xml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the location of data dictionary ready for importing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable importing menu items</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable importing data dictionaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the location of menu items ready for importing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class Field</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuItem1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDict1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuItem1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/MenuItem1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDict1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dict/DataDict1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Override Existing File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0038</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -681,311 +1053,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据字典管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典表单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单表单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子菜单组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>app.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0027</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring.mvc.locale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring.thymeleaf.cache</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default Locale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thymeleaf Cache, disabled for reloading when deveoping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yqboots.project.dict.import-enabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yqboots.project.dict.import-file-location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>classpath:updates/DataDicts.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yqboots.project.menu.import-enabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yqboots.project.menu.import-file-location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>classpath:updates/MenuItems.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>the location of data dictionary ready for importing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable importing menu items</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable importing data dictionaries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>the location of menu items ready for importing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domain Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class Field</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuItem1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDict1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuItem1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/MenuItem1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDict1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dict/DataDict1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAINTENANCE</t>
+    <t>输入文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Override?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input a File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Browse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否覆盖？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖已有的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1577,30 +1697,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1744,10 +1864,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>26</v>
@@ -1766,10 +1886,10 @@
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1786,10 +1906,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -1860,10 +1980,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
@@ -1945,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2074,7 +2194,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>87</v>
@@ -2085,7 +2205,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>88</v>
@@ -2096,18 +2216,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>89</v>
@@ -2118,7 +2238,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
@@ -2129,7 +2249,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>91</v>
@@ -2140,7 +2260,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>92</v>
@@ -2151,255 +2271,365 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2438,79 +2668,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
